--- a/public/data/lime/lime_table_angola.xlsx
+++ b/public/data/lime/lime_table_angola.xlsx
@@ -1720,16 +1720,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.12</v>
+        <v>0.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1749,13 +1749,13 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>2.74</v>
+        <v>1.96</v>
       </c>
       <c r="E3" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.22</v>
+        <v>1.31</v>
       </c>
       <c r="K3" t="n">
-        <v>0.62</v>
+        <v>0.02</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1814,16 +1814,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="K4" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>6.72</v>
+        <v>3.11</v>
       </c>
       <c r="E5" t="n">
-        <v>4.4</v>
+        <v>1.09</v>
       </c>
       <c r="F5" t="n">
-        <v>1.76</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1861,16 +1861,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.53</v>
+        <v>1.59</v>
       </c>
       <c r="K5" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1890,16 +1890,16 @@
         <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>1.88</v>
+        <v>1.26</v>
       </c>
       <c r="E6" t="n">
-        <v>0.59</v>
+        <v>0.08</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1908,16 +1908,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.74</v>
+        <v>0.92</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1955,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04</v>
+        <v>0.49</v>
       </c>
       <c r="K7" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1984,13 +1984,13 @@
         <v>95</v>
       </c>
       <c r="D8" t="n">
-        <v>5.71</v>
+        <v>5.37</v>
       </c>
       <c r="E8" t="n">
-        <v>4.76</v>
+        <v>4.05</v>
       </c>
       <c r="F8" t="n">
-        <v>3.66</v>
+        <v>2.5</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>5.31</v>
+        <v>4.97</v>
       </c>
       <c r="K8" t="n">
-        <v>4.39</v>
+        <v>3.67</v>
       </c>
       <c r="L8" t="n">
-        <v>3.32</v>
+        <v>2.24</v>
       </c>
       <c r="M8" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.32</v>
+        <v>0.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>96</v>
       </c>
       <c r="D10" t="n">
-        <v>8.11</v>
+        <v>7.68</v>
       </c>
       <c r="E10" t="n">
-        <v>6.8</v>
+        <v>5.88</v>
       </c>
       <c r="F10" t="n">
-        <v>5.28</v>
+        <v>3.79</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2096,16 +2096,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.86</v>
+        <v>3.48</v>
       </c>
       <c r="K10" t="n">
-        <v>2.88</v>
+        <v>2.23</v>
       </c>
       <c r="L10" t="n">
-        <v>1.97</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>97</v>
       </c>
       <c r="D11" t="n">
-        <v>3.03</v>
+        <v>2.73</v>
       </c>
       <c r="E11" t="n">
-        <v>2.18</v>
+        <v>1.53</v>
       </c>
       <c r="F11" t="n">
-        <v>1.19</v>
+        <v>0.13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2143,16 +2143,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
       <c r="K11" t="n">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="L11" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="M11" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         <v>98</v>
       </c>
       <c r="D12" t="n">
-        <v>2.42</v>
+        <v>2.11</v>
       </c>
       <c r="E12" t="n">
-        <v>1.65</v>
+        <v>1.03</v>
       </c>
       <c r="F12" t="n">
-        <v>0.83</v>
+        <v>0.22</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2190,16 +2190,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="K12" t="n">
-        <v>0.79</v>
+        <v>0.36</v>
       </c>
       <c r="L12" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>99</v>
       </c>
       <c r="D13" t="n">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="E13" t="n">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="F13" t="n">
-        <v>0.58</v>
+        <v>0.13</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2237,16 +2237,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.58</v>
+        <v>1.23</v>
       </c>
       <c r="K13" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="L13" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2266,13 +2266,13 @@
         <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>2.69</v>
+        <v>2.36</v>
       </c>
       <c r="E14" t="n">
-        <v>1.8</v>
+        <v>1.19</v>
       </c>
       <c r="F14" t="n">
-        <v>0.94</v>
+        <v>0.35</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.47</v>
+        <v>2.15</v>
       </c>
       <c r="K14" t="n">
-        <v>1.65</v>
+        <v>1.07</v>
       </c>
       <c r="L14" t="n">
-        <v>0.85</v>
+        <v>0.26</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2331,16 +2331,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.56</v>
+        <v>1.93</v>
       </c>
       <c r="K15" t="n">
-        <v>1.15</v>
+        <v>0.34</v>
       </c>
       <c r="L15" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>103</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>6.78</v>
       </c>
       <c r="E16" t="n">
-        <v>6.36</v>
+        <v>5.9</v>
       </c>
       <c r="F16" t="n">
-        <v>5.62</v>
+        <v>4.87</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.75</v>
+        <v>6.51</v>
       </c>
       <c r="K16" t="n">
-        <v>6.06</v>
+        <v>5.54</v>
       </c>
       <c r="L16" t="n">
-        <v>5.26</v>
+        <v>4.42</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2407,13 +2407,13 @@
         <v>104</v>
       </c>
       <c r="D17" t="n">
-        <v>6.19</v>
+        <v>5.94</v>
       </c>
       <c r="E17" t="n">
-        <v>5.56</v>
+        <v>5.04</v>
       </c>
       <c r="F17" t="n">
-        <v>4.83</v>
+        <v>3.98</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2425,13 +2425,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.53</v>
+        <v>5.13</v>
       </c>
       <c r="K17" t="n">
-        <v>4.64</v>
+        <v>3.82</v>
       </c>
       <c r="L17" t="n">
-        <v>3.63</v>
+        <v>2.57</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>105</v>
       </c>
       <c r="D18" t="n">
-        <v>6.19</v>
+        <v>5.94</v>
       </c>
       <c r="E18" t="n">
-        <v>5.5</v>
+        <v>4.96</v>
       </c>
       <c r="F18" t="n">
-        <v>4.7</v>
+        <v>3.82</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2472,13 +2472,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4.91</v>
+        <v>4.67</v>
       </c>
       <c r="K18" t="n">
-        <v>4.28</v>
+        <v>3.78</v>
       </c>
       <c r="L18" t="n">
-        <v>3.54</v>
+        <v>2.75</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>106</v>
       </c>
       <c r="D19" t="n">
-        <v>6.06</v>
+        <v>5.79</v>
       </c>
       <c r="E19" t="n">
-        <v>5.26</v>
+        <v>4.69</v>
       </c>
       <c r="F19" t="n">
-        <v>4.34</v>
+        <v>3.41</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2519,13 +2519,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.54</v>
+        <v>4.28</v>
       </c>
       <c r="K19" t="n">
-        <v>3.82</v>
+        <v>3.27</v>
       </c>
       <c r="L19" t="n">
-        <v>2.99</v>
+        <v>2.14</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2548,13 +2548,13 @@
         <v>107</v>
       </c>
       <c r="D20" t="n">
-        <v>5.8</v>
+        <v>5.55</v>
       </c>
       <c r="E20" t="n">
-        <v>5.14</v>
+        <v>4.61</v>
       </c>
       <c r="F20" t="n">
-        <v>4.37</v>
+        <v>3.52</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>4.49</v>
+        <v>4.22</v>
       </c>
       <c r="K20" t="n">
-        <v>3.79</v>
+        <v>3.23</v>
       </c>
       <c r="L20" t="n">
-        <v>3.01</v>
+        <v>2.23</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2595,31 +2595,31 @@
         <v>108</v>
       </c>
       <c r="D21" t="n">
-        <v>6.06</v>
+        <v>5.84</v>
       </c>
       <c r="E21" t="n">
-        <v>5.51</v>
+        <v>5.04</v>
       </c>
       <c r="F21" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>4.87</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5.21</v>
-      </c>
       <c r="K21" t="n">
-        <v>4.42</v>
+        <v>3.69</v>
       </c>
       <c r="L21" t="n">
-        <v>3.49</v>
+        <v>2.39</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2642,13 +2642,13 @@
         <v>109</v>
       </c>
       <c r="D22" t="n">
-        <v>6.98</v>
+        <v>6.77</v>
       </c>
       <c r="E22" t="n">
-        <v>6.33</v>
+        <v>5.88</v>
       </c>
       <c r="F22" t="n">
-        <v>5.56</v>
+        <v>4.85</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2660,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.99</v>
+        <v>5.78</v>
       </c>
       <c r="K22" t="n">
-        <v>5.34</v>
+        <v>4.88</v>
       </c>
       <c r="L22" t="n">
-        <v>4.59</v>
+        <v>3.85</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>110</v>
       </c>
       <c r="D23" t="n">
-        <v>5.94</v>
+        <v>5.69</v>
       </c>
       <c r="E23" t="n">
-        <v>5.21</v>
+        <v>4.67</v>
       </c>
       <c r="F23" t="n">
-        <v>4.35</v>
+        <v>3.49</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2707,16 +2707,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>4.75</v>
+        <v>4.46</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L23" t="n">
-        <v>3.15</v>
+        <v>2.28</v>
       </c>
       <c r="M23" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2736,13 +2736,13 @@
         <v>111</v>
       </c>
       <c r="D24" t="n">
-        <v>6.67</v>
+        <v>6.42</v>
       </c>
       <c r="E24" t="n">
-        <v>6.06</v>
+        <v>5.52</v>
       </c>
       <c r="F24" t="n">
-        <v>5.35</v>
+        <v>4.47</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6.45</v>
+        <v>6.16</v>
       </c>
       <c r="K24" t="n">
-        <v>5.74</v>
+        <v>5.12</v>
       </c>
       <c r="L24" t="n">
-        <v>4.91</v>
+        <v>3.95</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2783,16 +2783,16 @@
         <v>113</v>
       </c>
       <c r="D25" t="n">
-        <v>2.07</v>
+        <v>1.74</v>
       </c>
       <c r="E25" t="n">
-        <v>1.31</v>
+        <v>0.76</v>
       </c>
       <c r="F25" t="n">
-        <v>0.64</v>
+        <v>0.17</v>
       </c>
       <c r="G25" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.37</v>
+        <v>0.87</v>
       </c>
       <c r="K25" t="n">
-        <v>0.41</v>
+        <v>0.02</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2830,16 +2830,16 @@
         <v>114</v>
       </c>
       <c r="D26" t="n">
-        <v>1.46</v>
+        <v>1.12</v>
       </c>
       <c r="E26" t="n">
-        <v>0.81</v>
+        <v>0.34</v>
       </c>
       <c r="F26" t="n">
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
       <c r="G26" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.44</v>
+        <v>0.11</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2877,16 +2877,16 @@
         <v>112</v>
       </c>
       <c r="D27" t="n">
-        <v>1.89</v>
+        <v>1.35</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="F27" t="n">
-        <v>0.36</v>
+        <v>0.05</v>
       </c>
       <c r="G27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2895,16 +2895,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.38</v>
+        <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.45</v>
+        <v>0.03</v>
       </c>
       <c r="L27" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2924,16 +2924,16 @@
         <v>115</v>
       </c>
       <c r="D28" t="n">
-        <v>1.08</v>
+        <v>0.63</v>
       </c>
       <c r="E28" t="n">
-        <v>0.46</v>
+        <v>0.07</v>
       </c>
       <c r="F28" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2942,19 +2942,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="L28" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2989,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.97</v>
+        <v>0.37</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3036,16 +3036,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.42</v>
+        <v>0.6</v>
       </c>
       <c r="K30" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3065,16 +3065,16 @@
         <v>119</v>
       </c>
       <c r="D31" t="n">
-        <v>5.13</v>
+        <v>4.87</v>
       </c>
       <c r="E31" t="n">
-        <v>4.47</v>
+        <v>3.89</v>
       </c>
       <c r="F31" t="n">
-        <v>3.69</v>
+        <v>2.78</v>
       </c>
       <c r="G31" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3083,16 +3083,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.47</v>
+        <v>2.13</v>
       </c>
       <c r="K31" t="n">
-        <v>1.71</v>
+        <v>1.23</v>
       </c>
       <c r="L31" t="n">
-        <v>1.1</v>
+        <v>0.66</v>
       </c>
       <c r="M31" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3112,13 +3112,13 @@
         <v>120</v>
       </c>
       <c r="D32" t="n">
-        <v>4.69</v>
+        <v>4.35</v>
       </c>
       <c r="E32" t="n">
-        <v>3.92</v>
+        <v>3.19</v>
       </c>
       <c r="F32" t="n">
-        <v>3.02</v>
+        <v>1.98</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3130,16 +3130,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.54</v>
+        <v>1.89</v>
       </c>
       <c r="K32" t="n">
-        <v>1.35</v>
+        <v>0.66</v>
       </c>
       <c r="L32" t="n">
-        <v>0.58</v>
+        <v>0.22</v>
       </c>
       <c r="M32" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3177,16 +3177,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8</v>
+        <v>0.18</v>
       </c>
       <c r="K33" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3206,13 +3206,13 @@
         <v>122</v>
       </c>
       <c r="D34" t="n">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
       <c r="E34" t="n">
-        <v>1.74</v>
+        <v>0.86</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7</v>
+        <v>0.02</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3224,16 +3224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.39</v>
+        <v>0.83</v>
       </c>
       <c r="K34" t="n">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="L34" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3253,16 +3253,16 @@
         <v>123</v>
       </c>
       <c r="D35" t="n">
-        <v>4.82</v>
+        <v>4.5</v>
       </c>
       <c r="E35" t="n">
-        <v>4.09</v>
+        <v>3.42</v>
       </c>
       <c r="F35" t="n">
-        <v>3.25</v>
+        <v>2.26</v>
       </c>
       <c r="G35" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.55</v>
+        <v>2.01</v>
       </c>
       <c r="K35" t="n">
-        <v>1.45</v>
+        <v>0.78</v>
       </c>
       <c r="L35" t="n">
-        <v>0.66</v>
+        <v>0.25</v>
       </c>
       <c r="M35" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3300,16 +3300,16 @@
         <v>124</v>
       </c>
       <c r="D36" t="n">
-        <v>0.91</v>
+        <v>0.44</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3318,16 +3318,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="K36" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3347,16 +3347,16 @@
         <v>125</v>
       </c>
       <c r="D37" t="n">
-        <v>1.9</v>
+        <v>1.08</v>
       </c>
       <c r="E37" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3365,16 +3365,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.02</v>
+        <v>0.42</v>
       </c>
       <c r="K37" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3394,13 +3394,13 @@
         <v>127</v>
       </c>
       <c r="D38" t="n">
-        <v>6.32</v>
+        <v>6.11</v>
       </c>
       <c r="E38" t="n">
-        <v>5.58</v>
+        <v>5.14</v>
       </c>
       <c r="F38" t="n">
-        <v>4.73</v>
+        <v>4.02</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3412,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.95</v>
+        <v>5.7</v>
       </c>
       <c r="K38" t="n">
-        <v>5.08</v>
+        <v>4.53</v>
       </c>
       <c r="L38" t="n">
-        <v>4.07</v>
+        <v>3.2</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>128</v>
       </c>
       <c r="D39" t="n">
-        <v>4.99</v>
+        <v>4.63</v>
       </c>
       <c r="E39" t="n">
-        <v>4.13</v>
+        <v>3.34</v>
       </c>
       <c r="F39" t="n">
-        <v>3.12</v>
+        <v>1.86</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3459,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>5.39</v>
+        <v>4.98</v>
       </c>
       <c r="K39" t="n">
-        <v>4.46</v>
+        <v>3.59</v>
       </c>
       <c r="L39" t="n">
-        <v>3.38</v>
+        <v>1.98</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3488,13 +3488,13 @@
         <v>129</v>
       </c>
       <c r="D40" t="n">
-        <v>3.91</v>
+        <v>3.59</v>
       </c>
       <c r="E40" t="n">
-        <v>3.03</v>
+        <v>2.33</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>0.93</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3506,13 +3506,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.69</v>
+        <v>3.35</v>
       </c>
       <c r="K40" t="n">
-        <v>2.86</v>
+        <v>2.12</v>
       </c>
       <c r="L40" t="n">
-        <v>1.89</v>
+        <v>0.74</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3535,13 +3535,13 @@
         <v>130</v>
       </c>
       <c r="D41" t="n">
-        <v>3.69</v>
+        <v>3.31</v>
       </c>
       <c r="E41" t="n">
-        <v>2.67</v>
+        <v>1.85</v>
       </c>
       <c r="F41" t="n">
-        <v>1.49</v>
+        <v>0.49</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3.95</v>
+        <v>3.43</v>
       </c>
       <c r="K41" t="n">
-        <v>2.67</v>
+        <v>1.61</v>
       </c>
       <c r="L41" t="n">
-        <v>1.29</v>
+        <v>0.45</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3600,16 +3600,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3.45</v>
+        <v>2.27</v>
       </c>
       <c r="K42" t="n">
-        <v>1.31</v>
+        <v>0.09</v>
       </c>
       <c r="L42" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>132</v>
       </c>
       <c r="D43" t="n">
-        <v>3.53</v>
+        <v>2.61</v>
       </c>
       <c r="E43" t="n">
-        <v>1.59</v>
+        <v>0.44</v>
       </c>
       <c r="F43" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3647,16 +3647,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.07</v>
+        <v>2.88</v>
       </c>
       <c r="K43" t="n">
-        <v>1.96</v>
+        <v>0.37</v>
       </c>
       <c r="L43" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="M43" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3676,13 +3676,13 @@
         <v>133</v>
       </c>
       <c r="D44" t="n">
-        <v>3.22</v>
+        <v>2.7</v>
       </c>
       <c r="E44" t="n">
-        <v>1.88</v>
+        <v>0.94</v>
       </c>
       <c r="F44" t="n">
-        <v>0.66</v>
+        <v>0.19</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3694,13 +3694,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.36</v>
+        <v>2.71</v>
       </c>
       <c r="K44" t="n">
-        <v>1.82</v>
+        <v>0.91</v>
       </c>
       <c r="L44" t="n">
-        <v>0.73</v>
+        <v>0.33</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>134</v>
       </c>
       <c r="D45" t="n">
-        <v>3.83</v>
+        <v>3.18</v>
       </c>
       <c r="E45" t="n">
-        <v>2.39</v>
+        <v>1.12</v>
       </c>
       <c r="F45" t="n">
-        <v>0.93</v>
+        <v>0.15</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -3741,13 +3741,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.83</v>
+        <v>2.88</v>
       </c>
       <c r="K45" t="n">
-        <v>1.99</v>
+        <v>0.7</v>
       </c>
       <c r="L45" t="n">
-        <v>0.58</v>
+        <v>0.14</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3770,13 +3770,13 @@
         <v>135</v>
       </c>
       <c r="D46" t="n">
-        <v>5.98</v>
+        <v>5.55</v>
       </c>
       <c r="E46" t="n">
-        <v>4.95</v>
+        <v>4.03</v>
       </c>
       <c r="F46" t="n">
-        <v>3.75</v>
+        <v>2.29</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.15</v>
+        <v>5.38</v>
       </c>
       <c r="K46" t="n">
-        <v>4.53</v>
+        <v>2.92</v>
       </c>
       <c r="L46" t="n">
-        <v>2.66</v>
+        <v>1.07</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3817,13 +3817,13 @@
         <v>136</v>
       </c>
       <c r="D47" t="n">
-        <v>4.29</v>
+        <v>3.83</v>
       </c>
       <c r="E47" t="n">
-        <v>3.22</v>
+        <v>2.23</v>
       </c>
       <c r="F47" t="n">
-        <v>2.02</v>
+        <v>0.78</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3835,13 +3835,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>4.17</v>
+        <v>3.65</v>
       </c>
       <c r="K47" t="n">
-        <v>2.98</v>
+        <v>1.95</v>
       </c>
       <c r="L47" t="n">
-        <v>1.72</v>
+        <v>0.66</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>137</v>
       </c>
       <c r="D48" t="n">
-        <v>3.33</v>
+        <v>2.7</v>
       </c>
       <c r="E48" t="n">
-        <v>1.86</v>
+        <v>0.62</v>
       </c>
       <c r="F48" t="n">
-        <v>0.38</v>
+        <v>0.01</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -3882,16 +3882,16 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3.27</v>
+        <v>2.29</v>
       </c>
       <c r="K48" t="n">
-        <v>1.36</v>
+        <v>0.04</v>
       </c>
       <c r="L48" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3911,13 +3911,13 @@
         <v>138</v>
       </c>
       <c r="D49" t="n">
-        <v>5.31</v>
+        <v>4.95</v>
       </c>
       <c r="E49" t="n">
-        <v>4.33</v>
+        <v>3.56</v>
       </c>
       <c r="F49" t="n">
-        <v>3.18</v>
+        <v>2.04</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>139</v>
       </c>
       <c r="D50" t="n">
-        <v>6.9</v>
+        <v>6.55</v>
       </c>
       <c r="E50" t="n">
-        <v>5.97</v>
+        <v>5.22</v>
       </c>
       <c r="F50" t="n">
-        <v>4.89</v>
+        <v>3.68</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>7.29</v>
+        <v>6.82</v>
       </c>
       <c r="K50" t="n">
-        <v>6.06</v>
+        <v>5.06</v>
       </c>
       <c r="L50" t="n">
-        <v>4.64</v>
+        <v>3.02</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -4005,13 +4005,13 @@
         <v>141</v>
       </c>
       <c r="D51" t="n">
-        <v>3.77</v>
+        <v>3.08</v>
       </c>
       <c r="E51" t="n">
-        <v>2.06</v>
+        <v>0.58</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -4023,16 +4023,16 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>3.4</v>
+        <v>2.77</v>
       </c>
       <c r="K51" t="n">
-        <v>1.92</v>
+        <v>0.82</v>
       </c>
       <c r="L51" t="n">
-        <v>0.56</v>
+        <v>0.04</v>
       </c>
       <c r="M51" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -4052,13 +4052,13 @@
         <v>142</v>
       </c>
       <c r="D52" t="n">
-        <v>6.98</v>
+        <v>6.68</v>
       </c>
       <c r="E52" t="n">
-        <v>6.09</v>
+        <v>5.45</v>
       </c>
       <c r="F52" t="n">
-        <v>5.06</v>
+        <v>4.03</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>5.52</v>
+        <v>5.16</v>
       </c>
       <c r="K52" t="n">
-        <v>4.57</v>
+        <v>3.82</v>
       </c>
       <c r="L52" t="n">
-        <v>3.47</v>
+        <v>2.39</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -4099,13 +4099,13 @@
         <v>143</v>
       </c>
       <c r="D53" t="n">
-        <v>5.42</v>
+        <v>4.83</v>
       </c>
       <c r="E53" t="n">
-        <v>3.81</v>
+        <v>2.59</v>
       </c>
       <c r="F53" t="n">
-        <v>2.15</v>
+        <v>1.41</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -4117,16 +4117,16 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>4.71</v>
+        <v>4.15</v>
       </c>
       <c r="K53" t="n">
-        <v>3.35</v>
+        <v>2.36</v>
       </c>
       <c r="L53" t="n">
-        <v>2.05</v>
+        <v>1.16</v>
       </c>
       <c r="M53" t="n">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -4164,13 +4164,13 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>4.11</v>
+        <v>3.66</v>
       </c>
       <c r="K54" t="n">
-        <v>2.97</v>
+        <v>2.01</v>
       </c>
       <c r="L54" t="n">
-        <v>1.71</v>
+        <v>0.69</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -4193,13 +4193,13 @@
         <v>145</v>
       </c>
       <c r="D55" t="n">
-        <v>6.16</v>
+        <v>5.76</v>
       </c>
       <c r="E55" t="n">
-        <v>5.04</v>
+        <v>4.19</v>
       </c>
       <c r="F55" t="n">
-        <v>3.74</v>
+        <v>2.38</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -4211,16 +4211,16 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>5.2</v>
+        <v>4.64</v>
       </c>
       <c r="K55" t="n">
-        <v>3.78</v>
+        <v>2.67</v>
       </c>
       <c r="L55" t="n">
-        <v>2.25</v>
+        <v>1.14</v>
       </c>
       <c r="M55" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -4240,13 +4240,13 @@
         <v>146</v>
       </c>
       <c r="D56" t="n">
-        <v>6.47</v>
+        <v>6.2</v>
       </c>
       <c r="E56" t="n">
-        <v>5.74</v>
+        <v>5.15</v>
       </c>
       <c r="F56" t="n">
-        <v>4.88</v>
+        <v>3.92</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -4258,13 +4258,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>6.08</v>
+        <v>5.76</v>
       </c>
       <c r="K56" t="n">
-        <v>5.2</v>
+        <v>4.51</v>
       </c>
       <c r="L56" t="n">
-        <v>4.18</v>
+        <v>3.1</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -4305,16 +4305,16 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>3.33</v>
+        <v>2.33</v>
       </c>
       <c r="K57" t="n">
-        <v>1.22</v>
+        <v>0.29</v>
       </c>
       <c r="L57" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -4334,13 +4334,13 @@
         <v>148</v>
       </c>
       <c r="D58" t="n">
-        <v>6.99</v>
+        <v>6.75</v>
       </c>
       <c r="E58" t="n">
-        <v>6.26</v>
+        <v>5.74</v>
       </c>
       <c r="F58" t="n">
-        <v>5.4</v>
+        <v>4.56</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -4352,13 +4352,13 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>6.19</v>
+        <v>5.8</v>
       </c>
       <c r="K58" t="n">
-        <v>5.14</v>
+        <v>4.3</v>
       </c>
       <c r="L58" t="n">
-        <v>3.92</v>
+        <v>2.58</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -4381,13 +4381,13 @@
         <v>149</v>
       </c>
       <c r="D59" t="n">
-        <v>3.54</v>
+        <v>2.97</v>
       </c>
       <c r="E59" t="n">
-        <v>1.8</v>
+        <v>0.59</v>
       </c>
       <c r="F59" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -4399,16 +4399,16 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.74</v>
+        <v>2.05</v>
       </c>
       <c r="K59" t="n">
-        <v>1.02</v>
+        <v>0.37</v>
       </c>
       <c r="L59" t="n">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="M59" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -4428,13 +4428,13 @@
         <v>150</v>
       </c>
       <c r="D60" t="n">
-        <v>6.86</v>
+        <v>6.5</v>
       </c>
       <c r="E60" t="n">
-        <v>5.83</v>
+        <v>5.06</v>
       </c>
       <c r="F60" t="n">
-        <v>4.66</v>
+        <v>3.53</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -4446,16 +4446,16 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.91</v>
+        <v>4.43</v>
       </c>
       <c r="K60" t="n">
-        <v>3.61</v>
+        <v>2.74</v>
       </c>
       <c r="L60" t="n">
-        <v>2.38</v>
+        <v>1.48</v>
       </c>
       <c r="M60" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -4493,16 +4493,16 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>3.5</v>
+        <v>2.86</v>
       </c>
       <c r="K61" t="n">
-        <v>1.92</v>
+        <v>0.89</v>
       </c>
       <c r="L61" t="n">
-        <v>0.6</v>
+        <v>0.14</v>
       </c>
       <c r="M61" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -4522,13 +4522,13 @@
         <v>152</v>
       </c>
       <c r="D62" t="n">
-        <v>6.61</v>
+        <v>6.38</v>
       </c>
       <c r="E62" t="n">
-        <v>5.82</v>
+        <v>5.32</v>
       </c>
       <c r="F62" t="n">
-        <v>4.9</v>
+        <v>4.09</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -4540,16 +4540,16 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>5.53</v>
+        <v>5.09</v>
       </c>
       <c r="K62" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="L62" t="n">
-        <v>3.36</v>
+        <v>2.24</v>
       </c>
       <c r="M62" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.79</v>
+        <v>0.17</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -4634,16 +4634,16 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.32</v>
+        <v>0.51</v>
       </c>
       <c r="K64" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -4710,16 +4710,16 @@
         <v>157</v>
       </c>
       <c r="D66" t="n">
-        <v>3.48</v>
+        <v>3.08</v>
       </c>
       <c r="E66" t="n">
-        <v>2.65</v>
+        <v>1.82</v>
       </c>
       <c r="F66" t="n">
-        <v>1.73</v>
+        <v>0.87</v>
       </c>
       <c r="G66" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4728,16 +4728,16 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="K66" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="L66" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M66" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -4775,16 +4775,16 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.15</v>
+        <v>0.4</v>
       </c>
       <c r="K67" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4851,13 +4851,13 @@
         <v>161</v>
       </c>
       <c r="D69" t="n">
-        <v>5.33</v>
+        <v>5.11</v>
       </c>
       <c r="E69" t="n">
-        <v>4.69</v>
+        <v>4.21</v>
       </c>
       <c r="F69" t="n">
-        <v>3.94</v>
+        <v>3.17</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -4869,16 +4869,16 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>4.55</v>
+        <v>4.29</v>
       </c>
       <c r="K69" t="n">
-        <v>3.88</v>
+        <v>3.33</v>
       </c>
       <c r="L69" t="n">
-        <v>3.1</v>
+        <v>2.23</v>
       </c>
       <c r="M69" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4898,13 +4898,13 @@
         <v>162</v>
       </c>
       <c r="D70" t="n">
-        <v>3.66</v>
+        <v>3.44</v>
       </c>
       <c r="E70" t="n">
-        <v>3.03</v>
+        <v>2.55</v>
       </c>
       <c r="F70" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -4916,16 +4916,16 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K70" t="n">
-        <v>1.35</v>
+        <v>0.95</v>
       </c>
       <c r="L70" t="n">
-        <v>0.79</v>
+        <v>0.39</v>
       </c>
       <c r="M70" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4945,13 +4945,13 @@
         <v>163</v>
       </c>
       <c r="D71" t="n">
-        <v>6.41</v>
+        <v>6.13</v>
       </c>
       <c r="E71" t="n">
-        <v>5.63</v>
+        <v>5.03</v>
       </c>
       <c r="F71" t="n">
-        <v>4.72</v>
+        <v>3.75</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -4963,13 +4963,13 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>4.37</v>
+        <v>4.11</v>
       </c>
       <c r="K71" t="n">
-        <v>3.71</v>
+        <v>3.16</v>
       </c>
       <c r="L71" t="n">
-        <v>2.94</v>
+        <v>2.11</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -4992,13 +4992,13 @@
         <v>164</v>
       </c>
       <c r="D72" t="n">
-        <v>4.24</v>
+        <v>3.9</v>
       </c>
       <c r="E72" t="n">
-        <v>3.44</v>
+        <v>2.73</v>
       </c>
       <c r="F72" t="n">
-        <v>2.52</v>
+        <v>1.35</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -5010,16 +5010,16 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.9</v>
+        <v>2.59</v>
       </c>
       <c r="K72" t="n">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="L72" t="n">
-        <v>1.45</v>
+        <v>0.73</v>
       </c>
       <c r="M72" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -5039,13 +5039,13 @@
         <v>160</v>
       </c>
       <c r="D73" t="n">
-        <v>6.02</v>
+        <v>5.8</v>
       </c>
       <c r="E73" t="n">
-        <v>5.36</v>
+        <v>4.88</v>
       </c>
       <c r="F73" t="n">
-        <v>4.58</v>
+        <v>3.81</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -5057,16 +5057,16 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3.18</v>
+        <v>2.94</v>
       </c>
       <c r="K73" t="n">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
       <c r="L73" t="n">
-        <v>1.95</v>
+        <v>1.31</v>
       </c>
       <c r="M73" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -5086,13 +5086,13 @@
         <v>165</v>
       </c>
       <c r="D74" t="n">
-        <v>5.35</v>
+        <v>5.08</v>
       </c>
       <c r="E74" t="n">
-        <v>4.56</v>
+        <v>3.97</v>
       </c>
       <c r="F74" t="n">
-        <v>3.63</v>
+        <v>2.68</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -5104,16 +5104,16 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>4.34</v>
+        <v>4.05</v>
       </c>
       <c r="K74" t="n">
-        <v>3.57</v>
+        <v>2.98</v>
       </c>
       <c r="L74" t="n">
-        <v>2.71</v>
+        <v>1.84</v>
       </c>
       <c r="M74" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -5133,13 +5133,13 @@
         <v>166</v>
       </c>
       <c r="D75" t="n">
-        <v>2.9</v>
+        <v>2.67</v>
       </c>
       <c r="E75" t="n">
-        <v>2.3</v>
+        <v>1.81</v>
       </c>
       <c r="F75" t="n">
-        <v>1.59</v>
+        <v>0.8</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -5151,16 +5151,16 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="K75" t="n">
-        <v>1.14</v>
+        <v>0.75</v>
       </c>
       <c r="L75" t="n">
-        <v>0.6</v>
+        <v>0.22</v>
       </c>
       <c r="M75" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -5180,13 +5180,13 @@
         <v>167</v>
       </c>
       <c r="D76" t="n">
-        <v>5.55</v>
+        <v>5.31</v>
       </c>
       <c r="E76" t="n">
-        <v>4.9</v>
+        <v>4.38</v>
       </c>
       <c r="F76" t="n">
-        <v>4.14</v>
+        <v>3.3</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -5198,13 +5198,13 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>5.08</v>
+        <v>4.81</v>
       </c>
       <c r="K76" t="n">
-        <v>4.41</v>
+        <v>3.84</v>
       </c>
       <c r="L76" t="n">
-        <v>3.64</v>
+        <v>2.74</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -5227,13 +5227,13 @@
         <v>168</v>
       </c>
       <c r="D77" t="n">
-        <v>5.79</v>
+        <v>5.55</v>
       </c>
       <c r="E77" t="n">
-        <v>5.11</v>
+        <v>4.6</v>
       </c>
       <c r="F77" t="n">
-        <v>4.32</v>
+        <v>3.5</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -5245,16 +5245,16 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>3.94</v>
+        <v>3.72</v>
       </c>
       <c r="K77" t="n">
-        <v>3.35</v>
+        <v>2.89</v>
       </c>
       <c r="L77" t="n">
-        <v>2.68</v>
+        <v>1.96</v>
       </c>
       <c r="M77" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -5274,13 +5274,13 @@
         <v>169</v>
       </c>
       <c r="D78" t="n">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="E78" t="n">
-        <v>1.36</v>
+        <v>0.85</v>
       </c>
       <c r="F78" t="n">
-        <v>0.69</v>
+        <v>0.32</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -5292,16 +5292,16 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.71</v>
+        <v>2.42</v>
       </c>
       <c r="K78" t="n">
-        <v>1.97</v>
+        <v>1.42</v>
       </c>
       <c r="L78" t="n">
-        <v>1.2</v>
+        <v>0.55</v>
       </c>
       <c r="M78" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -5321,13 +5321,13 @@
         <v>170</v>
       </c>
       <c r="D79" t="n">
-        <v>3.1</v>
+        <v>2.83</v>
       </c>
       <c r="E79" t="n">
-        <v>2.4</v>
+        <v>1.86</v>
       </c>
       <c r="F79" t="n">
-        <v>1.65</v>
+        <v>0.88</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -5339,16 +5339,16 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>3.3</v>
+        <v>3.04</v>
       </c>
       <c r="K79" t="n">
-        <v>2.67</v>
+        <v>2.15</v>
       </c>
       <c r="L79" t="n">
-        <v>1.98</v>
+        <v>1.21</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -5368,13 +5368,13 @@
         <v>172</v>
       </c>
       <c r="D80" t="n">
-        <v>5.94</v>
+        <v>5.71</v>
       </c>
       <c r="E80" t="n">
-        <v>5.25</v>
+        <v>4.76</v>
       </c>
       <c r="F80" t="n">
-        <v>4.44</v>
+        <v>3.65</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -5386,16 +5386,16 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="K80" t="n">
-        <v>1.38</v>
+        <v>0.95</v>
       </c>
       <c r="L80" t="n">
-        <v>0.77</v>
+        <v>0.36</v>
       </c>
       <c r="M80" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -5415,13 +5415,13 @@
         <v>173</v>
       </c>
       <c r="D81" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="E81" t="n">
-        <v>1.15</v>
+        <v>0.65</v>
       </c>
       <c r="F81" t="n">
-        <v>0.52</v>
+        <v>0.11</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -5433,16 +5433,16 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="K81" t="n">
-        <v>0.42</v>
+        <v>0.17</v>
       </c>
       <c r="L81" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -5462,16 +5462,16 @@
         <v>174</v>
       </c>
       <c r="D82" t="n">
-        <v>0.96</v>
+        <v>0.44</v>
       </c>
       <c r="E82" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5480,16 +5480,16 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.98</v>
+        <v>0.51</v>
       </c>
       <c r="K82" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -5509,13 +5509,13 @@
         <v>175</v>
       </c>
       <c r="D83" t="n">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="E83" t="n">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="F83" t="n">
-        <v>1.61</v>
+        <v>0.7</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="K83" t="n">
-        <v>0.93</v>
+        <v>0.53</v>
       </c>
       <c r="L83" t="n">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
       <c r="M83" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -5556,13 +5556,13 @@
         <v>176</v>
       </c>
       <c r="D84" t="n">
-        <v>4.86</v>
+        <v>4.62</v>
       </c>
       <c r="E84" t="n">
-        <v>4.18</v>
+        <v>3.65</v>
       </c>
       <c r="F84" t="n">
-        <v>3.39</v>
+        <v>2.54</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -5574,16 +5574,16 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>3.26</v>
+        <v>3.03</v>
       </c>
       <c r="K84" t="n">
-        <v>2.62</v>
+        <v>2.12</v>
       </c>
       <c r="L84" t="n">
-        <v>1.89</v>
+        <v>1.2</v>
       </c>
       <c r="M84" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5621,16 +5621,16 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0.84</v>
+        <v>0.38</v>
       </c>
       <c r="K85" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="L85" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -5650,7 +5650,7 @@
         <v>178</v>
       </c>
       <c r="D86" t="n">
-        <v>1.12</v>
+        <v>0.46</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5668,16 +5668,16 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2</v>
+        <v>1.23</v>
       </c>
       <c r="K86" t="n">
-        <v>0.33</v>
+        <v>0.04</v>
       </c>
       <c r="L86" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -5697,13 +5697,13 @@
         <v>179</v>
       </c>
       <c r="D87" t="n">
-        <v>4.09</v>
+        <v>3.82</v>
       </c>
       <c r="E87" t="n">
-        <v>3.43</v>
+        <v>2.85</v>
       </c>
       <c r="F87" t="n">
-        <v>2.66</v>
+        <v>1.84</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -5715,16 +5715,16 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="K87" t="n">
-        <v>1.1</v>
+        <v>0.65</v>
       </c>
       <c r="L87" t="n">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -5744,13 +5744,13 @@
         <v>180</v>
       </c>
       <c r="D88" t="n">
-        <v>6.06</v>
+        <v>5.76</v>
       </c>
       <c r="E88" t="n">
-        <v>5.25</v>
+        <v>4.61</v>
       </c>
       <c r="F88" t="n">
-        <v>4.31</v>
+        <v>3.28</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -5762,16 +5762,16 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="K88" t="n">
-        <v>2.39</v>
+        <v>1.93</v>
       </c>
       <c r="L88" t="n">
-        <v>1.77</v>
+        <v>1.23</v>
       </c>
       <c r="M88" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -5791,16 +5791,16 @@
         <v>181</v>
       </c>
       <c r="D89" t="n">
-        <v>1.01</v>
+        <v>0.45</v>
       </c>
       <c r="E89" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5809,16 +5809,16 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="K89" t="n">
-        <v>0.89</v>
+        <v>0.45</v>
       </c>
       <c r="L89" t="n">
-        <v>0.28</v>
+        <v>0.05</v>
       </c>
       <c r="M89" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -5838,13 +5838,13 @@
         <v>182</v>
       </c>
       <c r="D90" t="n">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="E90" t="n">
-        <v>1.39</v>
+        <v>0.58</v>
       </c>
       <c r="F90" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -5856,16 +5856,16 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.28</v>
+        <v>0.8</v>
       </c>
       <c r="K90" t="n">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="M90" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5885,13 +5885,13 @@
         <v>183</v>
       </c>
       <c r="D91" t="n">
-        <v>2.93</v>
+        <v>2.63</v>
       </c>
       <c r="E91" t="n">
-        <v>2.22</v>
+        <v>1.57</v>
       </c>
       <c r="F91" t="n">
-        <v>1.38</v>
+        <v>0.34</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -5903,16 +5903,16 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="K91" t="n">
-        <v>1.15</v>
+        <v>0.64</v>
       </c>
       <c r="L91" t="n">
-        <v>0.47</v>
+        <v>0.11</v>
       </c>
       <c r="M91" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5950,16 +5950,16 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.04</v>
+        <v>0.63</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="M92" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -5997,16 +5997,16 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>6.78</v>
+        <v>2.66</v>
       </c>
       <c r="K93" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -6355,13 +6355,13 @@
         <v>194</v>
       </c>
       <c r="D101" t="n">
-        <v>5.93</v>
+        <v>1.95</v>
       </c>
       <c r="E101" t="n">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -6373,19 +6373,19 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>6.84</v>
+        <v>2.77</v>
       </c>
       <c r="K101" t="n">
-        <v>3.36</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -6402,13 +6402,13 @@
         <v>196</v>
       </c>
       <c r="D102" t="n">
-        <v>6.2</v>
+        <v>5.98</v>
       </c>
       <c r="E102" t="n">
-        <v>5.59</v>
+        <v>5.12</v>
       </c>
       <c r="F102" t="n">
-        <v>4.88</v>
+        <v>4.11</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -6420,13 +6420,13 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>3.97</v>
+        <v>3.47</v>
       </c>
       <c r="K102" t="n">
-        <v>2.68</v>
+        <v>1.72</v>
       </c>
       <c r="L102" t="n">
-        <v>1.38</v>
+        <v>0.43</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -6449,13 +6449,13 @@
         <v>197</v>
       </c>
       <c r="D103" t="n">
-        <v>6.44</v>
+        <v>6.12</v>
       </c>
       <c r="E103" t="n">
-        <v>5.39</v>
+        <v>4.71</v>
       </c>
       <c r="F103" t="n">
-        <v>4.18</v>
+        <v>3.08</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -6467,13 +6467,13 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>6.85</v>
+        <v>6.29</v>
       </c>
       <c r="K103" t="n">
-        <v>5.14</v>
+        <v>4.03</v>
       </c>
       <c r="L103" t="n">
-        <v>3.48</v>
+        <v>1.93</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -6496,13 +6496,13 @@
         <v>198</v>
       </c>
       <c r="D104" t="n">
-        <v>6.4</v>
+        <v>6.13</v>
       </c>
       <c r="E104" t="n">
-        <v>5.48</v>
+        <v>4.91</v>
       </c>
       <c r="F104" t="n">
-        <v>4.41</v>
+        <v>3.49</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -6514,13 +6514,13 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>6.33</v>
+        <v>6.02</v>
       </c>
       <c r="K104" t="n">
-        <v>5.27</v>
+        <v>4.6</v>
       </c>
       <c r="L104" t="n">
-        <v>4.03</v>
+        <v>2.95</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -6543,13 +6543,13 @@
         <v>199</v>
       </c>
       <c r="D105" t="n">
-        <v>6.12</v>
+        <v>5.87</v>
       </c>
       <c r="E105" t="n">
-        <v>5.44</v>
+        <v>4.91</v>
       </c>
       <c r="F105" t="n">
-        <v>4.66</v>
+        <v>3.79</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -6561,13 +6561,13 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>3.92</v>
+        <v>3.65</v>
       </c>
       <c r="K105" t="n">
-        <v>3.1</v>
+        <v>2.59</v>
       </c>
       <c r="L105" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -6590,13 +6590,13 @@
         <v>200</v>
       </c>
       <c r="D106" t="n">
-        <v>6.27</v>
+        <v>5.99</v>
       </c>
       <c r="E106" t="n">
-        <v>5.25</v>
+        <v>4.64</v>
       </c>
       <c r="F106" t="n">
-        <v>4.05</v>
+        <v>3.06</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -6608,13 +6608,13 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>6.29</v>
+        <v>5.96</v>
       </c>
       <c r="K106" t="n">
-        <v>5.11</v>
+        <v>4.41</v>
       </c>
       <c r="L106" t="n">
-        <v>3.76</v>
+        <v>2.66</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -6637,13 +6637,13 @@
         <v>201</v>
       </c>
       <c r="D107" t="n">
-        <v>6.62</v>
+        <v>6.33</v>
       </c>
       <c r="E107" t="n">
-        <v>5.71</v>
+        <v>5.09</v>
       </c>
       <c r="F107" t="n">
-        <v>4.64</v>
+        <v>3.64</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -6655,13 +6655,13 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>6.6</v>
+        <v>6.29</v>
       </c>
       <c r="K107" t="n">
-        <v>5.53</v>
+        <v>4.86</v>
       </c>
       <c r="L107" t="n">
-        <v>4.27</v>
+        <v>3.26</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -6684,13 +6684,13 @@
         <v>202</v>
       </c>
       <c r="D108" t="n">
-        <v>6.81</v>
+        <v>6.55</v>
       </c>
       <c r="E108" t="n">
-        <v>5.89</v>
+        <v>5.33</v>
       </c>
       <c r="F108" t="n">
-        <v>4.81</v>
+        <v>3.9</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -6702,13 +6702,13 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>6.59</v>
+        <v>6.01</v>
       </c>
       <c r="K108" t="n">
-        <v>5.3</v>
+        <v>4.07</v>
       </c>
       <c r="L108" t="n">
-        <v>3.79</v>
+        <v>2.38</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -6731,13 +6731,13 @@
         <v>203</v>
       </c>
       <c r="D109" t="n">
-        <v>6.66</v>
+        <v>6.39</v>
       </c>
       <c r="E109" t="n">
-        <v>5.78</v>
+        <v>5.2</v>
       </c>
       <c r="F109" t="n">
-        <v>4.76</v>
+        <v>3.81</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -6749,16 +6749,16 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>5.91</v>
+        <v>5.51</v>
       </c>
       <c r="K109" t="n">
-        <v>4.66</v>
+        <v>3.89</v>
       </c>
       <c r="L109" t="n">
-        <v>3.36</v>
+        <v>2.34</v>
       </c>
       <c r="M109" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
@@ -6778,13 +6778,13 @@
         <v>204</v>
       </c>
       <c r="D110" t="n">
-        <v>6.92</v>
+        <v>6.53</v>
       </c>
       <c r="E110" t="n">
-        <v>5.7</v>
+        <v>4.87</v>
       </c>
       <c r="F110" t="n">
-        <v>4.28</v>
+        <v>2.96</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -6796,16 +6796,16 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>6.44</v>
+        <v>5.78</v>
       </c>
       <c r="K110" t="n">
-        <v>4.35</v>
+        <v>3.09</v>
       </c>
       <c r="L110" t="n">
-        <v>2.41</v>
+        <v>1.19</v>
       </c>
       <c r="M110" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -6825,13 +6825,13 @@
         <v>206</v>
       </c>
       <c r="D111" t="n">
-        <v>5.92</v>
+        <v>5.7</v>
       </c>
       <c r="E111" t="n">
-        <v>5.26</v>
+        <v>4.8</v>
       </c>
       <c r="F111" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -6843,13 +6843,13 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>5.17</v>
+        <v>4.76</v>
       </c>
       <c r="K111" t="n">
-        <v>4.18</v>
+        <v>3.31</v>
       </c>
       <c r="L111" t="n">
-        <v>3.04</v>
+        <v>1.67</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -6872,13 +6872,13 @@
         <v>207</v>
       </c>
       <c r="D112" t="n">
-        <v>6.44</v>
+        <v>6.23</v>
       </c>
       <c r="E112" t="n">
-        <v>5.84</v>
+        <v>5.39</v>
       </c>
       <c r="F112" t="n">
-        <v>5.13</v>
+        <v>4.4</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -6890,13 +6890,13 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>4.92</v>
+        <v>4.44</v>
       </c>
       <c r="K112" t="n">
-        <v>3.88</v>
+        <v>2.89</v>
       </c>
       <c r="L112" t="n">
-        <v>2.73</v>
+        <v>1.45</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -6919,13 +6919,13 @@
         <v>208</v>
       </c>
       <c r="D113" t="n">
-        <v>6.78</v>
+        <v>6.54</v>
       </c>
       <c r="E113" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="F113" t="n">
-        <v>5.31</v>
+        <v>4.49</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -6937,13 +6937,13 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>5</v>
+        <v>4.45</v>
       </c>
       <c r="K113" t="n">
-        <v>3.85</v>
+        <v>2.71</v>
       </c>
       <c r="L113" t="n">
-        <v>2.56</v>
+        <v>1.17</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -6966,13 +6966,13 @@
         <v>209</v>
       </c>
       <c r="D114" t="n">
-        <v>6.95</v>
+        <v>6.7</v>
       </c>
       <c r="E114" t="n">
-        <v>6.2</v>
+        <v>5.68</v>
       </c>
       <c r="F114" t="n">
-        <v>5.33</v>
+        <v>4.5</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -6984,16 +6984,16 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>5.52</v>
+        <v>4.99</v>
       </c>
       <c r="K114" t="n">
-        <v>4.28</v>
+        <v>3.26</v>
       </c>
       <c r="L114" t="n">
-        <v>2.97</v>
+        <v>1.71</v>
       </c>
       <c r="M114" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
@@ -7013,13 +7013,13 @@
         <v>211</v>
       </c>
       <c r="D115" t="n">
-        <v>6.56</v>
+        <v>6.18</v>
       </c>
       <c r="E115" t="n">
-        <v>5.46</v>
+        <v>4.64</v>
       </c>
       <c r="F115" t="n">
-        <v>4.18</v>
+        <v>2.87</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -7031,13 +7031,13 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>5.92</v>
+        <v>5.21</v>
       </c>
       <c r="K115" t="n">
-        <v>4.2</v>
+        <v>2.74</v>
       </c>
       <c r="L115" t="n">
-        <v>2.25</v>
+        <v>0.84</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -7060,31 +7060,31 @@
         <v>212</v>
       </c>
       <c r="D116" t="n">
-        <v>7.6</v>
+        <v>7.27</v>
       </c>
       <c r="E116" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
         <v>6.62</v>
       </c>
-      <c r="F116" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>7.14</v>
-      </c>
       <c r="K116" t="n">
-        <v>5.72</v>
+        <v>4.61</v>
       </c>
       <c r="L116" t="n">
-        <v>4.08</v>
+        <v>2.42</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
@@ -7107,13 +7107,13 @@
         <v>213</v>
       </c>
       <c r="D117" t="n">
-        <v>7.22</v>
+        <v>6.84</v>
       </c>
       <c r="E117" t="n">
-        <v>6.32</v>
+        <v>5.51</v>
       </c>
       <c r="F117" t="n">
-        <v>5.28</v>
+        <v>4.01</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -7125,19 +7125,19 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>7.2</v>
+        <v>6.38</v>
       </c>
       <c r="K117" t="n">
-        <v>5.91</v>
+        <v>4.3</v>
       </c>
       <c r="L117" t="n">
-        <v>4.44</v>
+        <v>2.47</v>
       </c>
       <c r="M117" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
@@ -7154,13 +7154,13 @@
         <v>214</v>
       </c>
       <c r="D118" t="n">
-        <v>7.43</v>
+        <v>7.02</v>
       </c>
       <c r="E118" t="n">
-        <v>6.59</v>
+        <v>5.7</v>
       </c>
       <c r="F118" t="n">
-        <v>5.61</v>
+        <v>4.17</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -7172,13 +7172,13 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>6.95</v>
+        <v>6.36</v>
       </c>
       <c r="K118" t="n">
-        <v>5.89</v>
+        <v>4.64</v>
       </c>
       <c r="L118" t="n">
-        <v>4.65</v>
+        <v>2.93</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -7201,13 +7201,13 @@
         <v>215</v>
       </c>
       <c r="D119" t="n">
-        <v>7.02</v>
+        <v>6.61</v>
       </c>
       <c r="E119" t="n">
-        <v>5.79</v>
+        <v>4.91</v>
       </c>
       <c r="F119" t="n">
-        <v>4.36</v>
+        <v>3.06</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>5.84</v>
+        <v>4.98</v>
       </c>
       <c r="K119" t="n">
-        <v>3.84</v>
+        <v>2.12</v>
       </c>
       <c r="L119" t="n">
-        <v>1.67</v>
+        <v>0.31</v>
       </c>
       <c r="M119" t="n">
         <v>0</v>
@@ -7248,13 +7248,13 @@
         <v>216</v>
       </c>
       <c r="D120" t="n">
-        <v>7.44</v>
+        <v>7.15</v>
       </c>
       <c r="E120" t="n">
-        <v>6.54</v>
+        <v>5.92</v>
       </c>
       <c r="F120" t="n">
-        <v>5.49</v>
+        <v>4.49</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -7266,13 +7266,13 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>6.72</v>
+        <v>6.2</v>
       </c>
       <c r="K120" t="n">
-        <v>5.29</v>
+        <v>4.17</v>
       </c>
       <c r="L120" t="n">
-        <v>3.63</v>
+        <v>2.18</v>
       </c>
       <c r="M120" t="n">
         <v>0</v>
@@ -7295,13 +7295,13 @@
         <v>217</v>
       </c>
       <c r="D121" t="n">
-        <v>6.08</v>
+        <v>5.8</v>
       </c>
       <c r="E121" t="n">
-        <v>5.2</v>
+        <v>4.61</v>
       </c>
       <c r="F121" t="n">
-        <v>4.19</v>
+        <v>3.23</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -7313,13 +7313,13 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>5.71</v>
+        <v>4.99</v>
       </c>
       <c r="K121" t="n">
-        <v>3.94</v>
+        <v>2.63</v>
       </c>
       <c r="L121" t="n">
-        <v>2.27</v>
+        <v>1.3</v>
       </c>
       <c r="M121" t="n">
         <v>0</v>
@@ -7342,13 +7342,13 @@
         <v>218</v>
       </c>
       <c r="D122" t="n">
-        <v>7.81</v>
+        <v>7.37</v>
       </c>
       <c r="E122" t="n">
-        <v>7.01</v>
+        <v>6.08</v>
       </c>
       <c r="F122" t="n">
-        <v>6.08</v>
+        <v>4.58</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -7360,13 +7360,13 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>7.37</v>
+        <v>6.5</v>
       </c>
       <c r="K122" t="n">
-        <v>6.11</v>
+        <v>4.36</v>
       </c>
       <c r="L122" t="n">
-        <v>4.68</v>
+        <v>2.48</v>
       </c>
       <c r="M122" t="n">
         <v>0</v>
@@ -7389,13 +7389,13 @@
         <v>210</v>
       </c>
       <c r="D123" t="n">
-        <v>7.47</v>
+        <v>7.19</v>
       </c>
       <c r="E123" t="n">
-        <v>6.51</v>
+        <v>5.91</v>
       </c>
       <c r="F123" t="n">
-        <v>5.39</v>
+        <v>4.41</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -7407,16 +7407,16 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>6.39</v>
+        <v>6.03</v>
       </c>
       <c r="K123" t="n">
-        <v>5.34</v>
+        <v>4.59</v>
       </c>
       <c r="L123" t="n">
-        <v>4.12</v>
+        <v>2.94</v>
       </c>
       <c r="M123" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
@@ -7436,13 +7436,13 @@
         <v>219</v>
       </c>
       <c r="D124" t="n">
-        <v>5.47</v>
+        <v>5.23</v>
       </c>
       <c r="E124" t="n">
-        <v>4.72</v>
+        <v>4.21</v>
       </c>
       <c r="F124" t="n">
-        <v>3.85</v>
+        <v>3.08</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -7454,13 +7454,13 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>5.94</v>
+        <v>5.41</v>
       </c>
       <c r="K124" t="n">
-        <v>4.62</v>
+        <v>3.49</v>
       </c>
       <c r="L124" t="n">
-        <v>3.08</v>
+        <v>1.77</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
@@ -7483,13 +7483,13 @@
         <v>220</v>
       </c>
       <c r="D125" t="n">
-        <v>5.45</v>
+        <v>5.21</v>
       </c>
       <c r="E125" t="n">
-        <v>4.73</v>
+        <v>4.22</v>
       </c>
       <c r="F125" t="n">
-        <v>3.89</v>
+        <v>3.08</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -7501,13 +7501,13 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>5.29</v>
+        <v>4.99</v>
       </c>
       <c r="K125" t="n">
-        <v>4.48</v>
+        <v>3.81</v>
       </c>
       <c r="L125" t="n">
-        <v>3.52</v>
+        <v>2.5</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
@@ -7530,13 +7530,13 @@
         <v>221</v>
       </c>
       <c r="D126" t="n">
-        <v>7.78</v>
+        <v>7.47</v>
       </c>
       <c r="E126" t="n">
-        <v>6.83</v>
+        <v>6.18</v>
       </c>
       <c r="F126" t="n">
-        <v>5.73</v>
+        <v>4.68</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -7548,13 +7548,13 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>6.91</v>
+        <v>6.28</v>
       </c>
       <c r="K126" t="n">
-        <v>5.29</v>
+        <v>3.94</v>
       </c>
       <c r="L126" t="n">
-        <v>3.44</v>
+        <v>2.03</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -7577,13 +7577,13 @@
         <v>222</v>
       </c>
       <c r="D127" t="n">
-        <v>7.13</v>
+        <v>6.75</v>
       </c>
       <c r="E127" t="n">
-        <v>6.1</v>
+        <v>5.29</v>
       </c>
       <c r="F127" t="n">
-        <v>4.89</v>
+        <v>3.66</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -7595,16 +7595,16 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>5.62</v>
+        <v>4.59</v>
       </c>
       <c r="K127" t="n">
-        <v>3.17</v>
+        <v>1.4</v>
       </c>
       <c r="L127" t="n">
-        <v>1.11</v>
+        <v>0.3</v>
       </c>
       <c r="M127" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="N127" t="n">
         <v>0</v>
@@ -7624,13 +7624,13 @@
         <v>223</v>
       </c>
       <c r="D128" t="n">
-        <v>6.32</v>
+        <v>6.09</v>
       </c>
       <c r="E128" t="n">
-        <v>5.71</v>
+        <v>5.21</v>
       </c>
       <c r="F128" t="n">
-        <v>5.01</v>
+        <v>4.18</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -7642,13 +7642,13 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>7.25</v>
+        <v>6.57</v>
       </c>
       <c r="K128" t="n">
-        <v>6.12</v>
+        <v>4.65</v>
       </c>
       <c r="L128" t="n">
-        <v>4.79</v>
+        <v>2.61</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
@@ -7671,13 +7671,13 @@
         <v>225</v>
       </c>
       <c r="D129" t="n">
-        <v>5.57</v>
+        <v>5.28</v>
       </c>
       <c r="E129" t="n">
-        <v>4.94</v>
+        <v>4.32</v>
       </c>
       <c r="F129" t="n">
-        <v>4.22</v>
+        <v>3.22</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -7689,16 +7689,16 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>3.17</v>
+        <v>2.3</v>
       </c>
       <c r="K129" t="n">
-        <v>1.67</v>
+        <v>0.84</v>
       </c>
       <c r="L129" t="n">
-        <v>0.84</v>
+        <v>0.27</v>
       </c>
       <c r="M129" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
@@ -7718,13 +7718,13 @@
         <v>226</v>
       </c>
       <c r="D130" t="n">
-        <v>5.78</v>
+        <v>5.62</v>
       </c>
       <c r="E130" t="n">
-        <v>5.28</v>
+        <v>4.92</v>
       </c>
       <c r="F130" t="n">
-        <v>4.7</v>
+        <v>4.11</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -7736,13 +7736,13 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>4.51</v>
+        <v>4.12</v>
       </c>
       <c r="K130" t="n">
-        <v>3.67</v>
+        <v>2.83</v>
       </c>
       <c r="L130" t="n">
-        <v>2.69</v>
+        <v>1.48</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
@@ -7765,13 +7765,13 @@
         <v>227</v>
       </c>
       <c r="D131" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="E131" t="n">
-        <v>4.58</v>
+        <v>3.94</v>
       </c>
       <c r="F131" t="n">
-        <v>3.75</v>
+        <v>2.79</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -7783,16 +7783,16 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2.94</v>
+        <v>1.32</v>
       </c>
       <c r="K131" t="n">
-        <v>0.57</v>
+        <v>0.17</v>
       </c>
       <c r="L131" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="M131" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="N131" t="n">
         <v>0</v>
@@ -7812,13 +7812,13 @@
         <v>228</v>
       </c>
       <c r="D132" t="n">
-        <v>5.53</v>
+        <v>5.34</v>
       </c>
       <c r="E132" t="n">
-        <v>5.02</v>
+        <v>4.61</v>
       </c>
       <c r="F132" t="n">
-        <v>4.42</v>
+        <v>3.76</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -7830,19 +7830,19 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>3.69</v>
+        <v>2.7</v>
       </c>
       <c r="K132" t="n">
-        <v>2.25</v>
+        <v>1.28</v>
       </c>
       <c r="L132" t="n">
-        <v>1.28</v>
+        <v>0.61</v>
       </c>
       <c r="M132" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O132" t="n">
         <v>0</v>
@@ -7859,13 +7859,13 @@
         <v>229</v>
       </c>
       <c r="D133" t="n">
-        <v>6.02</v>
+        <v>5.79</v>
       </c>
       <c r="E133" t="n">
-        <v>5.44</v>
+        <v>4.93</v>
       </c>
       <c r="F133" t="n">
-        <v>4.75</v>
+        <v>3.93</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -7877,13 +7877,13 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>4.55</v>
+        <v>3.99</v>
       </c>
       <c r="K133" t="n">
-        <v>3.38</v>
+        <v>2.21</v>
       </c>
       <c r="L133" t="n">
-        <v>2.06</v>
+        <v>0.8</v>
       </c>
       <c r="M133" t="n">
         <v>0</v>
@@ -7906,13 +7906,13 @@
         <v>230</v>
       </c>
       <c r="D134" t="n">
-        <v>5.99</v>
+        <v>5.71</v>
       </c>
       <c r="E134" t="n">
-        <v>5.32</v>
+        <v>4.74</v>
       </c>
       <c r="F134" t="n">
-        <v>4.55</v>
+        <v>3.61</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -7924,16 +7924,16 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>3.79</v>
+        <v>2.5</v>
       </c>
       <c r="K134" t="n">
-        <v>1.61</v>
+        <v>0.61</v>
       </c>
       <c r="L134" t="n">
-        <v>0.59</v>
+        <v>0.2</v>
       </c>
       <c r="M134" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
@@ -7953,13 +7953,13 @@
         <v>231</v>
       </c>
       <c r="D135" t="n">
-        <v>5.3</v>
+        <v>5.08</v>
       </c>
       <c r="E135" t="n">
-        <v>4.74</v>
+        <v>4.28</v>
       </c>
       <c r="F135" t="n">
-        <v>4.1</v>
+        <v>3.37</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -7971,16 +7971,16 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>3.41</v>
+        <v>3.02</v>
       </c>
       <c r="K135" t="n">
-        <v>2.53</v>
+        <v>1.93</v>
       </c>
       <c r="L135" t="n">
-        <v>1.74</v>
+        <v>1.14</v>
       </c>
       <c r="M135" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
@@ -8000,13 +8000,13 @@
         <v>232</v>
       </c>
       <c r="D136" t="n">
-        <v>4.27</v>
+        <v>4.03</v>
       </c>
       <c r="E136" t="n">
-        <v>3.74</v>
+        <v>3.22</v>
       </c>
       <c r="F136" t="n">
-        <v>3.12</v>
+        <v>2.32</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -8018,16 +8018,16 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>2.35</v>
+        <v>1.94</v>
       </c>
       <c r="K136" t="n">
-        <v>1.5</v>
+        <v>0.97</v>
       </c>
       <c r="L136" t="n">
-        <v>0.85</v>
+        <v>0.42</v>
       </c>
       <c r="M136" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N136" t="n">
         <v>0</v>
@@ -8047,13 +8047,13 @@
         <v>224</v>
       </c>
       <c r="D137" t="n">
-        <v>5.62</v>
+        <v>5.44</v>
       </c>
       <c r="E137" t="n">
-        <v>5.12</v>
+        <v>4.72</v>
       </c>
       <c r="F137" t="n">
-        <v>4.53</v>
+        <v>3.89</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -8065,16 +8065,16 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K137" t="n">
-        <v>3.01</v>
+        <v>2.37</v>
       </c>
       <c r="L137" t="n">
-        <v>2.22</v>
+        <v>1.48</v>
       </c>
       <c r="M137" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
@@ -8112,16 +8112,16 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>1.79</v>
+        <v>1.26</v>
       </c>
       <c r="K138" t="n">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
@@ -8159,16 +8159,16 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>1.6</v>
+        <v>0.89</v>
       </c>
       <c r="K139" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="L139" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M139" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N139" t="n">
         <v>0</v>
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>1.38</v>
+        <v>0.36</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -8300,16 +8300,16 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.42</v>
+        <v>0.56</v>
       </c>
       <c r="K142" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>0</v>
       </c>
       <c r="M142" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N142" t="n">
         <v>0</v>
@@ -8329,13 +8329,13 @@
         <v>239</v>
       </c>
       <c r="D143" t="n">
-        <v>5.71</v>
+        <v>5.52</v>
       </c>
       <c r="E143" t="n">
-        <v>5.08</v>
+        <v>4.68</v>
       </c>
       <c r="F143" t="n">
-        <v>4.35</v>
+        <v>3.69</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -8347,13 +8347,13 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>5.52</v>
+        <v>5.26</v>
       </c>
       <c r="K143" t="n">
-        <v>4.49</v>
+        <v>3.93</v>
       </c>
       <c r="L143" t="n">
-        <v>3.29</v>
+        <v>2.39</v>
       </c>
       <c r="M143" t="n">
         <v>0</v>
@@ -8376,16 +8376,16 @@
         <v>240</v>
       </c>
       <c r="D144" t="n">
-        <v>1.21</v>
+        <v>0.67</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="F144" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8394,16 +8394,16 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.12</v>
+        <v>0.54</v>
       </c>
       <c r="K144" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N144" t="n">
         <v>0</v>
@@ -8423,16 +8423,16 @@
         <v>241</v>
       </c>
       <c r="D145" t="n">
-        <v>2.11</v>
+        <v>1.74</v>
       </c>
       <c r="E145" t="n">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="F145" t="n">
-        <v>0.56</v>
+        <v>0.14</v>
       </c>
       <c r="G145" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8441,16 +8441,16 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>1.54</v>
+        <v>1.09</v>
       </c>
       <c r="K145" t="n">
-        <v>0.65</v>
+        <v>0.17</v>
       </c>
       <c r="L145" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="M145" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N145" t="n">
         <v>0</v>
@@ -8470,16 +8470,16 @@
         <v>242</v>
       </c>
       <c r="D146" t="n">
-        <v>2.58</v>
+        <v>2.37</v>
       </c>
       <c r="E146" t="n">
-        <v>2.09</v>
+        <v>1.67</v>
       </c>
       <c r="F146" t="n">
-        <v>1.54</v>
+        <v>0.96</v>
       </c>
       <c r="G146" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>0.56</v>
+        <v>0.22</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="N146" t="n">
         <v>0</v>
@@ -8517,13 +8517,13 @@
         <v>243</v>
       </c>
       <c r="D147" t="n">
-        <v>3.77</v>
+        <v>3.55</v>
       </c>
       <c r="E147" t="n">
-        <v>3.21</v>
+        <v>2.74</v>
       </c>
       <c r="F147" t="n">
-        <v>2.56</v>
+        <v>1.8</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -8535,13 +8535,13 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>3.27</v>
+        <v>3.04</v>
       </c>
       <c r="K147" t="n">
-        <v>2.72</v>
+        <v>2.22</v>
       </c>
       <c r="L147" t="n">
-        <v>2.08</v>
+        <v>1.26</v>
       </c>
       <c r="M147" t="n">
         <v>0</v>
@@ -8564,16 +8564,16 @@
         <v>244</v>
       </c>
       <c r="D148" t="n">
-        <v>2.35</v>
+        <v>2.12</v>
       </c>
       <c r="E148" t="n">
-        <v>1.75</v>
+        <v>1.32</v>
       </c>
       <c r="F148" t="n">
-        <v>1.16</v>
+        <v>0.65</v>
       </c>
       <c r="G148" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -8582,16 +8582,16 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="K148" t="n">
-        <v>1.82</v>
+        <v>1.44</v>
       </c>
       <c r="L148" t="n">
-        <v>1.28</v>
+        <v>0.77</v>
       </c>
       <c r="M148" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N148" t="n">
         <v>0</v>
@@ -8611,16 +8611,16 @@
         <v>245</v>
       </c>
       <c r="D149" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="E149" t="n">
-        <v>2.81</v>
+        <v>2.38</v>
       </c>
       <c r="F149" t="n">
-        <v>2.19</v>
+        <v>1.55</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -8629,16 +8629,16 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>4.24</v>
+        <v>4.05</v>
       </c>
       <c r="K149" t="n">
-        <v>3.64</v>
+        <v>3.23</v>
       </c>
       <c r="L149" t="n">
-        <v>2.95</v>
+        <v>2.33</v>
       </c>
       <c r="M149" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N149" t="n">
         <v>0</v>
@@ -8658,13 +8658,13 @@
         <v>246</v>
       </c>
       <c r="D150" t="n">
-        <v>4.27</v>
+        <v>4.04</v>
       </c>
       <c r="E150" t="n">
-        <v>3.67</v>
+        <v>3.19</v>
       </c>
       <c r="F150" t="n">
-        <v>2.98</v>
+        <v>2.22</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -8676,13 +8676,13 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>4.93</v>
+        <v>4.64</v>
       </c>
       <c r="K150" t="n">
-        <v>4.18</v>
+        <v>3.55</v>
       </c>
       <c r="L150" t="n">
-        <v>3.31</v>
+        <v>2.34</v>
       </c>
       <c r="M150" t="n">
         <v>0</v>
@@ -8705,16 +8705,16 @@
         <v>247</v>
       </c>
       <c r="D151" t="n">
-        <v>2.57</v>
+        <v>2.31</v>
       </c>
       <c r="E151" t="n">
-        <v>1.85</v>
+        <v>1.35</v>
       </c>
       <c r="F151" t="n">
-        <v>1.12</v>
+        <v>0.5</v>
       </c>
       <c r="G151" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -8723,13 +8723,13 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>3.47</v>
+        <v>3.16</v>
       </c>
       <c r="K151" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="L151" t="n">
-        <v>1.37</v>
+        <v>0.34</v>
       </c>
       <c r="M151" t="n">
         <v>0</v>
@@ -8752,13 +8752,13 @@
         <v>248</v>
       </c>
       <c r="D152" t="n">
-        <v>4.39</v>
+        <v>4.2</v>
       </c>
       <c r="E152" t="n">
-        <v>3.76</v>
+        <v>3.36</v>
       </c>
       <c r="F152" t="n">
-        <v>3.04</v>
+        <v>2.38</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -8770,16 +8770,16 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>4.32</v>
+        <v>4.06</v>
       </c>
       <c r="K152" t="n">
-        <v>3.55</v>
+        <v>3.03</v>
       </c>
       <c r="L152" t="n">
-        <v>2.69</v>
+        <v>1.87</v>
       </c>
       <c r="M152" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N152" t="n">
         <v>0</v>
@@ -8799,13 +8799,13 @@
         <v>249</v>
       </c>
       <c r="D153" t="n">
-        <v>4.58</v>
+        <v>4.41</v>
       </c>
       <c r="E153" t="n">
-        <v>4.02</v>
+        <v>3.64</v>
       </c>
       <c r="F153" t="n">
-        <v>3.36</v>
+        <v>2.74</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -8846,13 +8846,13 @@
         <v>250</v>
       </c>
       <c r="D154" t="n">
-        <v>3.48</v>
+        <v>3.25</v>
       </c>
       <c r="E154" t="n">
-        <v>2.92</v>
+        <v>2.43</v>
       </c>
       <c r="F154" t="n">
-        <v>2.27</v>
+        <v>1.52</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -8864,13 +8864,13 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>5.05</v>
+        <v>4.75</v>
       </c>
       <c r="K154" t="n">
-        <v>4.24</v>
+        <v>3.59</v>
       </c>
       <c r="L154" t="n">
-        <v>3.3</v>
+        <v>2.26</v>
       </c>
       <c r="M154" t="n">
         <v>0</v>
@@ -8893,16 +8893,16 @@
         <v>251</v>
       </c>
       <c r="D155" t="n">
-        <v>2.73</v>
+        <v>2.36</v>
       </c>
       <c r="E155" t="n">
-        <v>1.75</v>
+        <v>1.08</v>
       </c>
       <c r="F155" t="n">
-        <v>0.81</v>
+        <v>0.24</v>
       </c>
       <c r="G155" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -8911,13 +8911,13 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>2.12</v>
+        <v>1.61</v>
       </c>
       <c r="K155" t="n">
-        <v>0.93</v>
+        <v>0.38</v>
       </c>
       <c r="L155" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="M155" t="n">
         <v>0</v>
@@ -8940,13 +8940,13 @@
         <v>252</v>
       </c>
       <c r="D156" t="n">
-        <v>4.12</v>
+        <v>3.89</v>
       </c>
       <c r="E156" t="n">
-        <v>3.53</v>
+        <v>3.04</v>
       </c>
       <c r="F156" t="n">
-        <v>2.84</v>
+        <v>2.06</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -8958,13 +8958,13 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>5.11</v>
+        <v>4.87</v>
       </c>
       <c r="K156" t="n">
-        <v>4.43</v>
+        <v>3.93</v>
       </c>
       <c r="L156" t="n">
-        <v>3.65</v>
+        <v>2.86</v>
       </c>
       <c r="M156" t="n">
         <v>0</v>
@@ -8987,16 +8987,16 @@
         <v>253</v>
       </c>
       <c r="D157" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="E157" t="n">
-        <v>1.18</v>
+        <v>0.66</v>
       </c>
       <c r="F157" t="n">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>0.89</v>
+        <v>0.61</v>
       </c>
       <c r="K157" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>0</v>
       </c>
       <c r="M157" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N157" t="n">
         <v>0</v>
@@ -9034,16 +9034,16 @@
         <v>238</v>
       </c>
       <c r="D158" t="n">
-        <v>2.36</v>
+        <v>2.11</v>
       </c>
       <c r="E158" t="n">
-        <v>1.69</v>
+        <v>1.21</v>
       </c>
       <c r="F158" t="n">
-        <v>0.98</v>
+        <v>0.44</v>
       </c>
       <c r="G158" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9052,16 +9052,16 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>3.52</v>
+        <v>3.26</v>
       </c>
       <c r="K158" t="n">
-        <v>2.77</v>
+        <v>2.34</v>
       </c>
       <c r="L158" t="n">
-        <v>2.08</v>
+        <v>1.38</v>
       </c>
       <c r="M158" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N158" t="n">
         <v>0</v>
@@ -9081,16 +9081,16 @@
         <v>255</v>
       </c>
       <c r="D159" t="n">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="E159" t="n">
-        <v>2.66</v>
+        <v>1.96</v>
       </c>
       <c r="F159" t="n">
-        <v>1.71</v>
+        <v>0.77</v>
       </c>
       <c r="G159" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9099,13 +9099,13 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>4.59</v>
+        <v>3.97</v>
       </c>
       <c r="K159" t="n">
-        <v>3.3</v>
+        <v>1.96</v>
       </c>
       <c r="L159" t="n">
-        <v>1.81</v>
+        <v>0.15</v>
       </c>
       <c r="M159" t="n">
         <v>0</v>
@@ -9128,13 +9128,13 @@
         <v>256</v>
       </c>
       <c r="D160" t="n">
-        <v>3.11</v>
+        <v>2.8</v>
       </c>
       <c r="E160" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="F160" t="n">
-        <v>1.32</v>
+        <v>0.44</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -9146,13 +9146,13 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>3.16</v>
+        <v>2.74</v>
       </c>
       <c r="K160" t="n">
-        <v>2.12</v>
+        <v>1.23</v>
       </c>
       <c r="L160" t="n">
-        <v>0.94</v>
+        <v>0.17</v>
       </c>
       <c r="M160" t="n">
         <v>0</v>
@@ -9175,16 +9175,16 @@
         <v>257</v>
       </c>
       <c r="D161" t="n">
-        <v>1.57</v>
+        <v>1.11</v>
       </c>
       <c r="E161" t="n">
-        <v>0.61</v>
+        <v>0.16</v>
       </c>
       <c r="F161" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9193,16 +9193,16 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>1.37</v>
+        <v>0.78</v>
       </c>
       <c r="K161" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="L161" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M161" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N161" t="n">
         <v>0</v>
@@ -9222,13 +9222,13 @@
         <v>258</v>
       </c>
       <c r="D162" t="n">
-        <v>2.36</v>
+        <v>2.03</v>
       </c>
       <c r="E162" t="n">
-        <v>1.51</v>
+        <v>0.84</v>
       </c>
       <c r="F162" t="n">
-        <v>0.63</v>
+        <v>0.16</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>1.69</v>
+        <v>1.27</v>
       </c>
       <c r="K162" t="n">
-        <v>0.79</v>
+        <v>0.35</v>
       </c>
       <c r="L162" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="M162" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N162" t="n">
         <v>0</v>
@@ -9269,16 +9269,16 @@
         <v>259</v>
       </c>
       <c r="D163" t="n">
-        <v>1.35</v>
+        <v>0.94</v>
       </c>
       <c r="E163" t="n">
-        <v>0.44</v>
+        <v>0.14</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9287,19 +9287,19 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>1.37</v>
+        <v>0.72</v>
       </c>
       <c r="K163" t="n">
-        <v>0.33</v>
+        <v>0.02</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O163" t="n">
         <v>0</v>
@@ -9316,16 +9316,16 @@
         <v>260</v>
       </c>
       <c r="D164" t="n">
-        <v>2.15</v>
+        <v>1.77</v>
       </c>
       <c r="E164" t="n">
-        <v>1.26</v>
+        <v>0.67</v>
       </c>
       <c r="F164" t="n">
-        <v>0.52</v>
+        <v>0.1</v>
       </c>
       <c r="G164" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -9334,16 +9334,16 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>1.52</v>
+        <v>1.02</v>
       </c>
       <c r="K164" t="n">
-        <v>0.55</v>
+        <v>0.2</v>
       </c>
       <c r="L164" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="M164" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N164" t="n">
         <v>0</v>
